--- a/biology/Botanique/Colutea/Colutea.xlsx
+++ b/biology/Botanique/Colutea/Colutea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colutea est un genre de plantes de la famille des Fabacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Description[1]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'arbustes ou de petits arbres, caducs.
 Les feuilles sont imparipennées, rarement trifoliées.
@@ -546,7 +560,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre est réparti dans le pourtour méditerranéen (Espagne, France, Italie), dans le Caucase, dans l'Himalaya - en Afghanistan, au Népal et en Chine.
 </t>
@@ -577,7 +593,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La liste des espèces est issue des index IPNI (The International Plant Names Index) et Tropicos (Index du jardin botanique du Missouri) consultés à la date de juillet 2012. Les plantes conservées dans le genre sont en caractères gras :
 Colutea abyssinica Kunth &amp; Bouché (1847)
@@ -593,7 +611,7 @@
 Colutea arborescens subsp. atlantica (Browicz) Ponert (1972) : voir Colutea atlantica Browicz
 Colutea arborescens subsp. atlantica O.Bolòs &amp; Vigo (1974) : voir Colutea atlantica Browicz
 Colutea arborescens subsp. cilicica (Boiss. &amp; Balansa) Ponert (1972) : voir Colutea cilicica Boiss. &amp; Balansa
-Colutea arborescens fo. crispa Kirschn. (1864)[2]
+Colutea arborescens fo. crispa Kirschn. (1864)
 Colutea arborescens subsp. gallica Browicz (1963)
 Colutea arborescens subsp. hispanica (Talavera &amp; Arista) Mateo &amp; M.B.Crespo (2001)
 Colutea arborescens var. nepalensis (Sims) Baker (1876) : voir Colutea nepalensis Sims
@@ -723,9 +741,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La principale utilisation des espèces du genre Colutea est ornementale. Une utilisation des espèces caucasiennes comme plantes laxatives est signalée par K. K. Shaparenko[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La principale utilisation des espèces du genre Colutea est ornementale. Une utilisation des espèces caucasiennes comme plantes laxatives est signalée par K. K. Shaparenko.
 </t>
         </is>
       </c>
@@ -754,11 +774,13 @@
           <t>Historique du genre</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Quelques plantes de ce genre sont connues, en particulier Colutea arborescens depuis très longtemps en Europe. Le terme Colutea (Κολυτέα) existe déjà en grec et est mentionné par Theophraste dans son Histoire des plantes (Περὶ Φυτῶν Ιστορίας) mais il recouvre plutôt une espèce du genre Trigonella.
-La première iconographie que nous possédons est celle produite par Leonhart Fuchs en 1549 (image ci-contre)[3].
-Joseph Pitton de Tournefort décrit le genre - division botanique qu'il applique avant Linné - Colutea ou Baguenaudier une première fois en 1694 avec quatre espèces[4] puis complète le genre en 1700[5], description associée à une très belle illustration[6]. Il y place cinq espèces en 1700, puis une sixième en 1703, dont trois sont actuellement toujours dans le genre :
+La première iconographie que nous possédons est celle produite par Leonhart Fuchs en 1549 (image ci-contre).
+Joseph Pitton de Tournefort décrit le genre - division botanique qu'il applique avant Linné - Colutea ou Baguenaudier une première fois en 1694 avec quatre espèces puis complète le genre en 1700, description associée à une très belle illustration. Il y place cinq espèces en 1700, puis une sixième en 1703, dont trois sont actuellement toujours dans le genre :
 Colutea vesicaria (1694) : Colutea arborescens
 Colutea vesicaria, vesiculis rubentibus (1700) : Colutea atlantica
 Colutea aethiopica, flore purpureo (1694) : Colutea frutescens, i.e. Sutherlandia frutescens
@@ -766,14 +788,14 @@
 Colutea verae crucis, vesicaria (1694) ?
 Colutea orientalis, flore sanguinei coloris, lutea macula notato (1703) : Colutea orientalis
 Sa description de 1694 en français, traduite en latin en 1700, est remarquable et reste celle du genre (sauf la précision du pistil arqué) : « Le baguenaudier est un genre dont la fleur est légumineuse. Le calice pousse le pistil qui devient dans la suite une gousse membraneuse, enflée comme une vessie, composée de deux cosses entre lesquelles se trouvent plusieurs semences de la figure d'un petit rein ».
-Carl von Linné crée le genre en 1753 sans mentionner toutes ces antériorités : il y place seulement trois espèces : Colutea arborescens, Colutea frutescens et Colutea herbacea donc une seule subsiste dans le genre[7].
-Jean-Baptiste de Lamarck publie une première synthèse en 1783 avec ajout de trois espèces[8]. Il distingue les espèces ligneuses (celles qui resterons dans le genre) des espèces herbacées (qui seront placées ultérieurement principalement dans différents genres - Coluteastrum ou Astragalus en particulier -).
-Pierre Edmond Boissier, en 1872, effectue une première révision systématique du genre en distinguant deux sections : Eucolutea (avec C. arborescens, C. melanocalyx, C. armena', C. halepica, C.cilicica, C. cruenta, C. persica) et Oreophysa (avec C. triphylla)[9].
-Camillo Karl Schneider en 1907 établit une nouvelle revue complète du genre très documentée et illustrée[10].
-En 1940-1941 (publication en 1945, après son décès), K. K. Shaparenko effectue à nouveau une révision du genre (pour les espèces de la partie asiatique)[1]. En 1956, est aussi publiée (à titre posthume) son étude organisant le genre en deux autres sections : Ovalifoliatae et Rotundifoliatae. Il prend en compte, par ailleurs, les espèces fossiles connues à l'époque. Enfin, il date du crétacé supérieur la première apparition d'un fossile apparenté au genre[11].
-En 1967, Kasimierz Browicz distingue quatre sections et six sous-sections où se répartissent les 26 espèces alors comptées dans le genre[12]. Sa classification est donnée ci-dessous.
+Carl von Linné crée le genre en 1753 sans mentionner toutes ces antériorités : il y place seulement trois espèces : Colutea arborescens, Colutea frutescens et Colutea herbacea donc une seule subsiste dans le genre.
+Jean-Baptiste de Lamarck publie une première synthèse en 1783 avec ajout de trois espèces. Il distingue les espèces ligneuses (celles qui resterons dans le genre) des espèces herbacées (qui seront placées ultérieurement principalement dans différents genres - Coluteastrum ou Astragalus en particulier -).
+Pierre Edmond Boissier, en 1872, effectue une première révision systématique du genre en distinguant deux sections : Eucolutea (avec C. arborescens, C. melanocalyx, C. armena', C. halepica, C.cilicica, C. cruenta, C. persica) et Oreophysa (avec C. triphylla).
+Camillo Karl Schneider en 1907 établit une nouvelle revue complète du genre très documentée et illustrée.
+En 1940-1941 (publication en 1945, après son décès), K. K. Shaparenko effectue à nouveau une révision du genre (pour les espèces de la partie asiatique). En 1956, est aussi publiée (à titre posthume) son étude organisant le genre en deux autres sections : Ovalifoliatae et Rotundifoliatae. Il prend en compte, par ailleurs, les espèces fossiles connues à l'époque. Enfin, il date du crétacé supérieur la première apparition d'un fossile apparenté au genre.
+En 1967, Kasimierz Browicz distingue quatre sections et six sous-sections où se répartissent les 26 espèces alors comptées dans le genre. Sa classification est donnée ci-dessous.
 Subdivisions du genre Colutea selon Browics
-Bien que la plus récente, cette dernière révision tend à se révéler inconsistante au regard des travaux actuels de phylogénétique[13].
+Bien que la plus récente, cette dernière révision tend à se révéler inconsistante au regard des travaux actuels de phylogénétique.
 </t>
         </is>
       </c>
@@ -802,11 +824,13 @@
           <t>Posistion taxinomique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre est actuellement classé dans sous-tribu des Astragalinae, de la tribu des Galegeae de la sous-famille des Faboideae par l'index GRIN. Historiquement, il était placé dans la sous-tribu des Coluteinae Benth. &amp; Hook.f.
-Le classement actuel est remis en cause par les études phylogénétiques depuis plus de 10 ans[14]. Les travaux de Martin F. Wojciechowski placent le genre Colutea sur la même branche que les genres Swainsona et Carmichaelia et parallèle au genre Astragalus (ce qui rend, au sein de la sous-famille des Faboideae, la tribu Galegeae paraphylétique)[15]. Une révision sera nécessaire.
-La chronologie phylogénétique de la sous-famille est maintenant bien cernée. La divergence de la sous-famille conctenant ces genres devrait dater, selon l'évaluation par Martin F. Wojciechowski, de 8 à 15 Ma, datation précisée par l'étude de 2009 de Mingli Zhang, Yun Kang, Lihua Zhou, Dietrich  Podlech sur le genre Astragalus à 14,8 Ma pour la divergence entre les sous-tribus Astragalinae et Coluteinae[16].  La date de divergence du genre Colutea dans la tribu des Coluteinae est fixée à 6 Ma (figure 2 de l'étude de Lingli Zhang, Yun Kang, Lihua Zhou, Dietrich  Podlech).
+Le classement actuel est remis en cause par les études phylogénétiques depuis plus de 10 ans. Les travaux de Martin F. Wojciechowski placent le genre Colutea sur la même branche que les genres Swainsona et Carmichaelia et parallèle au genre Astragalus (ce qui rend, au sein de la sous-famille des Faboideae, la tribu Galegeae paraphylétique). Une révision sera nécessaire.
+La chronologie phylogénétique de la sous-famille est maintenant bien cernée. La divergence de la sous-famille conctenant ces genres devrait dater, selon l'évaluation par Martin F. Wojciechowski, de 8 à 15 Ma, datation précisée par l'étude de 2009 de Mingli Zhang, Yun Kang, Lihua Zhou, Dietrich  Podlech sur le genre Astragalus à 14,8 Ma pour la divergence entre les sous-tribus Astragalinae et Coluteinae.  La date de divergence du genre Colutea dans la tribu des Coluteinae est fixée à 6 Ma (figure 2 de l'étude de Lingli Zhang, Yun Kang, Lihua Zhou, Dietrich  Podlech).
 </t>
         </is>
       </c>
